--- a/usecases/Concrete/Data/Versuche.xlsx
+++ b/usecases/Concrete/Data/Versuche.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datasets\ModelCalibration\Datasets\Versuche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datasets\ModelCalibration\usecases\Concrete\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2822244B-A2AE-4402-A902-C0786EE8A715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF1119-BD85-4F74-9445-5F68638DC934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{0BD4A609-6B96-42D9-B0D7-3873C80C126B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0BD4A609-6B96-42D9-B0D7-3873C80C126B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
   <si>
     <t>Mischung</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>2014_12_10 Wolf</t>
+  </si>
+  <si>
+    <t>Mischungsdaten nicht vorhanden;Proben wurden extern hergestellt</t>
   </si>
 </sst>
 </file>
@@ -636,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABEAD99-6164-421F-8EE2-2E786812EC44}">
   <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +652,7 @@
     <col min="6" max="7" width="17.109375" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="27.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -854,6 +857,9 @@
       <c r="H9" s="6">
         <v>1</v>
       </c>
+      <c r="J9" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
@@ -878,6 +884,9 @@
       <c r="H10" s="6">
         <v>1</v>
       </c>
+      <c r="J10" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -902,6 +911,9 @@
       <c r="H11" s="6">
         <v>1</v>
       </c>
+      <c r="J11" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -923,6 +935,9 @@
       <c r="I12" s="6">
         <v>1</v>
       </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
@@ -944,6 +959,9 @@
       <c r="I13" s="6">
         <v>1</v>
       </c>
+      <c r="J13" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
@@ -965,6 +983,9 @@
       <c r="I14" s="6">
         <v>1</v>
       </c>
+      <c r="J14" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
@@ -986,6 +1007,9 @@
       <c r="I15" s="6">
         <v>1</v>
       </c>
+      <c r="J15" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1007,6 +1031,9 @@
       <c r="I16" s="6">
         <v>1</v>
       </c>
+      <c r="J16" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -1027,6 +1054,9 @@
       </c>
       <c r="I17" s="6">
         <v>1</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">

--- a/usecases/Concrete/Data/Versuche.xlsx
+++ b/usecases/Concrete/Data/Versuche.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datasets\ModelCalibration\usecases\Concrete\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnoell\Desktop\Gitstuff\Concrete_data\ModelCalibration\usecases\Concrete\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF1119-BD85-4F74-9445-5F68638DC934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13216332-621B-455C-939A-1EF254B8CADA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0BD4A609-6B96-42D9-B0D7-3873C80C126B}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8460" xr2:uid="{0BD4A609-6B96-42D9-B0D7-3873C80C126B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>Mischung</t>
   </si>
@@ -224,16 +224,31 @@
     <t>Zuordnung Mischungen unsicher</t>
   </si>
   <si>
-    <t>2014_03_11 Reprofilierungsplatten_Scharfe_Lanke</t>
-  </si>
-  <si>
-    <t>2014_08_04 Rezepturen_auf 85 Liter_Werner_Losert</t>
-  </si>
-  <si>
-    <t>2014_12_10 Wolf</t>
-  </si>
-  <si>
     <t>Mischungsdaten nicht vorhanden;Proben wurden extern hergestellt</t>
+  </si>
+  <si>
+    <t>2014_12_10 Wolf.xls</t>
+  </si>
+  <si>
+    <t>2014_03_11 Reprofilierungsplatten_Scharfe_Lanke.xls</t>
+  </si>
+  <si>
+    <t>2014_08_05 Rezeptur_MI.xlsx</t>
+  </si>
+  <si>
+    <t>2014_08_05 Rezeptur_MII.xlsx</t>
+  </si>
+  <si>
+    <t>2014_08_05 Rezeptur_MIV.xlsx</t>
+  </si>
+  <si>
+    <t>2014_08_05 Rezeptur_MIII.xlsx</t>
+  </si>
+  <si>
+    <t>2014_08_05 Rezeptur_MV.xlsx</t>
+  </si>
+  <si>
+    <t>2014_08_05 Rezeptur_MVI.xlsx</t>
   </si>
 </sst>
 </file>
@@ -639,23 +654,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABEAD99-6164-421F-8EE2-2E786812EC44}">
   <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="56.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.08984375" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="56.08984375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,9 +702,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4">
         <v>42032</v>
@@ -713,9 +728,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4">
         <v>42032</v>
@@ -739,9 +754,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4">
         <v>42032</v>
@@ -765,9 +780,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="4">
         <v>42032</v>
@@ -788,9 +803,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4">
         <v>42032</v>
@@ -811,9 +826,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4">
         <v>42032</v>
@@ -834,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="4">
         <v>41716</v>
@@ -858,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="4">
         <v>41716</v>
@@ -885,10 +900,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="4">
         <v>41716</v>
@@ -912,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="4">
         <v>41716</v>
@@ -936,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="4">
         <v>41716</v>
@@ -960,10 +975,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="4">
         <v>41716</v>
@@ -984,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="4">
         <v>41716</v>
@@ -1008,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="4">
         <v>41716</v>
@@ -1032,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="4">
         <v>41716</v>
@@ -1056,12 +1071,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4">
         <v>41737</v>
@@ -1085,9 +1100,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="4">
         <v>41737</v>
@@ -1111,9 +1126,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4">
         <v>41737</v>
@@ -1137,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="4">
         <v>41837</v>
@@ -1165,7 +1180,7 @@
       </c>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="4">
         <v>41837</v>
@@ -1193,7 +1208,7 @@
       </c>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="4">
         <v>41837</v>
@@ -1221,7 +1236,7 @@
       </c>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="4">
         <v>41838</v>
@@ -1249,7 +1264,7 @@
       </c>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="4">
         <v>41838</v>
@@ -1277,7 +1292,7 @@
       </c>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="4">
         <v>41838</v>
@@ -1305,7 +1320,7 @@
       </c>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="4">
         <v>41838</v>
@@ -1333,7 +1348,7 @@
       </c>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="4">
         <v>41838</v>
@@ -1361,7 +1376,7 @@
       </c>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="4">
         <v>41838</v>
@@ -1389,7 +1404,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="4">
         <v>41838</v>
@@ -1417,7 +1432,7 @@
       </c>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="4">
         <v>41838</v>
@@ -1445,7 +1460,7 @@
       </c>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="4">
         <v>41838</v>
@@ -1473,7 +1488,7 @@
       </c>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="4">
         <v>41837</v>
@@ -1498,7 +1513,7 @@
       </c>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="4">
         <v>41837</v>
@@ -1523,7 +1538,7 @@
       </c>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="4">
         <v>41837</v>
@@ -1548,9 +1563,9 @@
       </c>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B36" s="4">
         <v>41883</v>
@@ -1574,9 +1589,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B37" s="4">
         <v>41883</v>
@@ -1600,9 +1615,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B38" s="4">
         <v>41883</v>
@@ -1626,9 +1641,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B39" s="4">
         <v>41883</v>
@@ -1652,9 +1667,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B40" s="4">
         <v>41883</v>
@@ -1678,9 +1693,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="4">
         <v>41883</v>
@@ -1704,9 +1719,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B42" s="4">
         <v>41885</v>
@@ -1733,9 +1748,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B43" s="4">
         <v>41885</v>
@@ -1762,9 +1777,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B44" s="4">
         <v>41885</v>
@@ -1791,9 +1806,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B45" s="4">
         <v>41885</v>
@@ -1820,9 +1835,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B46" s="4">
         <v>41885</v>
@@ -1849,9 +1864,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B47" s="4">
         <v>41885</v>
@@ -1878,9 +1893,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B48" s="4">
         <v>41893</v>
@@ -1904,9 +1919,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B49" s="4">
         <v>41893</v>
@@ -1930,9 +1945,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B50" s="4">
         <v>41893</v>
@@ -1956,9 +1971,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B51" s="4">
         <v>41893</v>
@@ -1982,9 +1997,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B52" s="4">
         <v>41893</v>
@@ -2008,9 +2023,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B53" s="4">
         <v>41893</v>
